--- a/DataProvider/inputData.xlsx
+++ b/DataProvider/inputData.xlsx
@@ -7,15 +7,15 @@
     <workbookView windowHeight="2985" windowWidth="14085" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" r:id="rId1" sheetId="2"/>
-    <sheet name="Hoja2" r:id="rId2" sheetId="3"/>
+    <sheet name="config" r:id="rId1" sheetId="3"/>
+    <sheet name="Hoja1" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="115">
   <si>
     <t>Mervin</t>
   </si>
@@ -314,40 +314,52 @@
     <t>Determinar Cobertura</t>
   </si>
   <si>
-    <t>2292</t>
-  </si>
-  <si>
-    <t>2293</t>
-  </si>
-  <si>
-    <t>2299</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
     <t>2313</t>
   </si>
   <si>
     <t>2314</t>
+  </si>
+  <si>
+    <t>Datos del Proyecto</t>
+  </si>
+  <si>
+    <t>Path del Proyecto</t>
+  </si>
+  <si>
+    <t>Path de Reportes</t>
+  </si>
+  <si>
+    <t>URL Process Center</t>
+  </si>
+  <si>
+    <t>Id Proyecto</t>
+  </si>
+  <si>
+    <t>NombreProyecto</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Test0856893</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Yayo\\Desktop\\Test</t>
+  </si>
+  <si>
+    <t>asdsasdasdasdsadasd</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>TETS_02225886_Pudranse</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Yayo\\Desktop\\Test\\Reportes</t>
+  </si>
+  <si>
+    <t>sadfgasdgsdgasdgsagsgdsgasg</t>
   </si>
 </sst>
 </file>
@@ -355,7 +367,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,8 +395,16 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +426,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
@@ -456,9 +494,20 @@
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -763,9 +812,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="64.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -790,20 +908,20 @@
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
       <c r="N1" s="3" t="s">
         <v>2</v>
       </c>
@@ -996,10 +1114,10 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N10" s="9"/>
     </row>
@@ -1248,16 +1366,4 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/DataProvider/inputData.xlsx
+++ b/DataProvider/inputData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="118">
   <si>
     <t>Mervin</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t>sadfgasdgsdgasdgsagsgdsgasg</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Test001_test</t>
+  </si>
+  <si>
+    <t>https://192.168.5.56:9443/ProcessPortal/jsp/index.jsp</t>
   </si>
 </sst>
 </file>
@@ -835,7 +844,7 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -843,7 +852,7 @@
         <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -867,7 +876,7 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
